--- a/biology/Zoologie/Cynoglossidae/Cynoglossidae.xlsx
+++ b/biology/Zoologie/Cynoglossidae/Cynoglossidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cynoglossidae sont une famille de poissons pleuronectiformes (c'est-à-dire des poissons plats ayant des côtés dissemblables).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (15 mars 2018)[2] et FishBase                                            (15 mars 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (15 mars 2018) et FishBase                                            (15 mars 2018) :
 sous-famille Cynoglossinae
 genre Cynoglossus Hamilton, 1822
 genre Paraplagusia Bleeker, 1865
@@ -550,7 +564,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jordan &amp; Goss, 1889 : A review of the flounders and soles (Pleuronectidae) of America and Europe. United States Commission of Fish and Fisheries, Report of the Commissioner, vol. 14, n. 2, pp. 225–342 (texte intégral) (en).</t>
         </is>
